--- a/課題管理.xlsx
+++ b/課題管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanamori\git\office-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F3CC1-F7FA-4AFC-8525-B00628A53471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8B8242-4202-4028-BCCD-419C06A8DE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -169,8 +169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BE691307-1DDE-4BDF-B36B-19010B269136}" name="テーブル2" displayName="テーブル2" ref="B2:S26" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B2:S26" xr:uid="{BE691307-1DDE-4BDF-B36B-19010B269136}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BE691307-1DDE-4BDF-B36B-19010B269136}" name="テーブル2" displayName="テーブル2" ref="B2:S27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:S27" xr:uid="{BE691307-1DDE-4BDF-B36B-19010B269136}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C02C66E1-1E75-4329-8FE8-51F8990521DC}" name="ID">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069650A8-DA2C-4717-B94B-F2E2D411AC34}">
-  <dimension ref="B2:S26"/>
+  <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,7 +486,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B4">
-        <f t="shared" ref="B4:B26" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B27" si="0">ROW()-2</f>
         <v>2</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
     </row>
@@ -620,6 +620,12 @@
       <c r="B26">
         <f t="shared" si="0"/>
         <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0961C29D-1E82-41C0-B46E-A586D22511BC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/課題管理.xlsx
+++ b/課題管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanamori\git\office-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8B8242-4202-4028-BCCD-419C06A8DE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4C7F30-DC8C-45B0-94C7-23CD9C974457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +91,16 @@
   </si>
   <si>
     <t>PJ対象外</t>
+  </si>
+  <si>
+    <t>＜目的＞</t>
+    <rPh sb="1" eb="3">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検討事項やバグへの対処など、何らかの判断が必要となるタスクを一元管理し、 作業のもれをなくす</t>
   </si>
 </sst>
 </file>
@@ -402,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069650A8-DA2C-4717-B94B-F2E2D411AC34}">
   <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -639,12 +649,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0961C29D-1E82-41C0-B46E-A586D22511BC}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
